--- a/tests/Gauges/Subranges_WithSubtotals_tMD2.xlsx
+++ b/tests/Gauges/Subranges_WithSubtotals_tMD2.xlsx
@@ -11,8 +11,6 @@
   </x:sheets>
   <x:definedNames>
     <x:definedName name="Customers">'Sheet 1'!$A$4:$J$1728</x:definedName>
-    <x:definedName name="Customers_Orders">__temp_buffer!$A$1698:$J$1725</x:definedName>
-    <x:definedName name="Customers_Orders_Items">__temp_buffer!$A$1717:$J$1724</x:definedName>
     <x:definedName name="Customers_tpl">'Sheet 1'!$A$4:$J$11</x:definedName>
     <x:definedName name="Customers_Orders_tpl">'Sheet 1'!$A$6:$J$10</x:definedName>
     <x:definedName name="Customers_Orders_Items_tpl">'Sheet 1'!$A$8:$J$9</x:definedName>

--- a/tests/Gauges/Subranges_WithSubtotals_tMD2.xlsx
+++ b/tests/Gauges/Subranges_WithSubtotals_tMD2.xlsx
@@ -2863,13 +2863,13 @@
       <x:c r="F48" s="39" t="s"/>
       <x:c r="G48" s="39" t="s"/>
       <x:c r="H48" s="39">
-        <x:f>Subtotal(9,H47:H47)</x:f>
+        <x:f>Subtotal(9,H47)</x:f>
       </x:c>
       <x:c r="I48" s="40">
-        <x:f>Subtotal(9,I47:I47)</x:f>
+        <x:f>Subtotal(9,I47)</x:f>
       </x:c>
       <x:c r="J48" s="22">
-        <x:f>Subtotal(9,J47:J47)</x:f>
+        <x:f>Subtotal(9,J47)</x:f>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -3652,13 +3652,13 @@
       <x:c r="F83" s="39" t="s"/>
       <x:c r="G83" s="39" t="s"/>
       <x:c r="H83" s="39">
-        <x:f>Subtotal(9,H82:H82)</x:f>
+        <x:f>Subtotal(9,H82)</x:f>
       </x:c>
       <x:c r="I83" s="40">
-        <x:f>Subtotal(9,I82:I82)</x:f>
+        <x:f>Subtotal(9,I82)</x:f>
       </x:c>
       <x:c r="J83" s="22">
-        <x:f>Subtotal(9,J82:J82)</x:f>
+        <x:f>Subtotal(9,J82)</x:f>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:10">
@@ -4566,13 +4566,13 @@
       <x:c r="F123" s="39" t="s"/>
       <x:c r="G123" s="39" t="s"/>
       <x:c r="H123" s="39">
-        <x:f>Subtotal(9,H122:H122)</x:f>
+        <x:f>Subtotal(9,H122)</x:f>
       </x:c>
       <x:c r="I123" s="40">
-        <x:f>Subtotal(9,I122:I122)</x:f>
+        <x:f>Subtotal(9,I122)</x:f>
       </x:c>
       <x:c r="J123" s="22">
-        <x:f>Subtotal(9,J122:J122)</x:f>
+        <x:f>Subtotal(9,J122)</x:f>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:10">
@@ -4927,13 +4927,13 @@
       <x:c r="F139" s="39" t="s"/>
       <x:c r="G139" s="39" t="s"/>
       <x:c r="H139" s="39">
-        <x:f>Subtotal(9,H138:H138)</x:f>
+        <x:f>Subtotal(9,H138)</x:f>
       </x:c>
       <x:c r="I139" s="40">
-        <x:f>Subtotal(9,I138:I138)</x:f>
+        <x:f>Subtotal(9,I138)</x:f>
       </x:c>
       <x:c r="J139" s="22">
-        <x:f>Subtotal(9,J138:J138)</x:f>
+        <x:f>Subtotal(9,J138)</x:f>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:10">
@@ -6362,13 +6362,13 @@
       <x:c r="F199" s="39" t="s"/>
       <x:c r="G199" s="39" t="s"/>
       <x:c r="H199" s="39">
-        <x:f>Subtotal(9,H198:H198)</x:f>
+        <x:f>Subtotal(9,H198)</x:f>
       </x:c>
       <x:c r="I199" s="40">
-        <x:f>Subtotal(9,I198:I198)</x:f>
+        <x:f>Subtotal(9,I198)</x:f>
       </x:c>
       <x:c r="J199" s="22">
-        <x:f>Subtotal(9,J198:J198)</x:f>
+        <x:f>Subtotal(9,J198)</x:f>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:10">
@@ -8642,13 +8642,13 @@
       <x:c r="F295" s="39" t="s"/>
       <x:c r="G295" s="39" t="s"/>
       <x:c r="H295" s="39">
-        <x:f>Subtotal(9,H294:H294)</x:f>
+        <x:f>Subtotal(9,H294)</x:f>
       </x:c>
       <x:c r="I295" s="40">
-        <x:f>Subtotal(9,I294:I294)</x:f>
+        <x:f>Subtotal(9,I294)</x:f>
       </x:c>
       <x:c r="J295" s="22">
-        <x:f>Subtotal(9,J294:J294)</x:f>
+        <x:f>Subtotal(9,J294)</x:f>
       </x:c>
     </x:row>
     <x:row r="296" spans="1:10">
@@ -8729,13 +8729,13 @@
       <x:c r="F299" s="39" t="s"/>
       <x:c r="G299" s="39" t="s"/>
       <x:c r="H299" s="39">
-        <x:f>Subtotal(9,H298:H298)</x:f>
+        <x:f>Subtotal(9,H298)</x:f>
       </x:c>
       <x:c r="I299" s="40">
-        <x:f>Subtotal(9,I298:I298)</x:f>
+        <x:f>Subtotal(9,I298)</x:f>
       </x:c>
       <x:c r="J299" s="22">
-        <x:f>Subtotal(9,J298:J298)</x:f>
+        <x:f>Subtotal(9,J298)</x:f>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:10">
@@ -9277,13 +9277,13 @@
       <x:c r="F323" s="39" t="s"/>
       <x:c r="G323" s="39" t="s"/>
       <x:c r="H323" s="39">
-        <x:f>Subtotal(9,H322:H322)</x:f>
+        <x:f>Subtotal(9,H322)</x:f>
       </x:c>
       <x:c r="I323" s="40">
-        <x:f>Subtotal(9,I322:I322)</x:f>
+        <x:f>Subtotal(9,I322)</x:f>
       </x:c>
       <x:c r="J323" s="22">
-        <x:f>Subtotal(9,J322:J322)</x:f>
+        <x:f>Subtotal(9,J322)</x:f>
       </x:c>
     </x:row>
     <x:row r="324" spans="1:10">
@@ -14619,13 +14619,13 @@
       <x:c r="F557" s="39" t="s"/>
       <x:c r="G557" s="39" t="s"/>
       <x:c r="H557" s="39">
-        <x:f>Subtotal(9,H556:H556)</x:f>
+        <x:f>Subtotal(9,H556)</x:f>
       </x:c>
       <x:c r="I557" s="40">
-        <x:f>Subtotal(9,I556:I556)</x:f>
+        <x:f>Subtotal(9,I556)</x:f>
       </x:c>
       <x:c r="J557" s="22">
-        <x:f>Subtotal(9,J556:J556)</x:f>
+        <x:f>Subtotal(9,J556)</x:f>
       </x:c>
     </x:row>
     <x:row r="558" spans="1:10">
@@ -14706,13 +14706,13 @@
       <x:c r="F561" s="39" t="s"/>
       <x:c r="G561" s="39" t="s"/>
       <x:c r="H561" s="39">
-        <x:f>Subtotal(9,H560:H560)</x:f>
+        <x:f>Subtotal(9,H560)</x:f>
       </x:c>
       <x:c r="I561" s="40">
-        <x:f>Subtotal(9,I560:I560)</x:f>
+        <x:f>Subtotal(9,I560)</x:f>
       </x:c>
       <x:c r="J561" s="22">
-        <x:f>Subtotal(9,J560:J560)</x:f>
+        <x:f>Subtotal(9,J560)</x:f>
       </x:c>
     </x:row>
     <x:row r="562" spans="1:10">
@@ -14793,13 +14793,13 @@
       <x:c r="F565" s="39" t="s"/>
       <x:c r="G565" s="39" t="s"/>
       <x:c r="H565" s="39">
-        <x:f>Subtotal(9,H564:H564)</x:f>
+        <x:f>Subtotal(9,H564)</x:f>
       </x:c>
       <x:c r="I565" s="40">
-        <x:f>Subtotal(9,I564:I564)</x:f>
+        <x:f>Subtotal(9,I564)</x:f>
       </x:c>
       <x:c r="J565" s="22">
-        <x:f>Subtotal(9,J564:J564)</x:f>
+        <x:f>Subtotal(9,J564)</x:f>
       </x:c>
     </x:row>
     <x:row r="566" spans="1:10">
@@ -15233,13 +15233,13 @@
       <x:c r="F585" s="39" t="s"/>
       <x:c r="G585" s="39" t="s"/>
       <x:c r="H585" s="39">
-        <x:f>Subtotal(9,H584:H584)</x:f>
+        <x:f>Subtotal(9,H584)</x:f>
       </x:c>
       <x:c r="I585" s="40">
-        <x:f>Subtotal(9,I584:I584)</x:f>
+        <x:f>Subtotal(9,I584)</x:f>
       </x:c>
       <x:c r="J585" s="22">
-        <x:f>Subtotal(9,J584:J584)</x:f>
+        <x:f>Subtotal(9,J584)</x:f>
       </x:c>
     </x:row>
     <x:row r="586" spans="1:10">
@@ -16421,13 +16421,13 @@
       <x:c r="F637" s="39" t="s"/>
       <x:c r="G637" s="39" t="s"/>
       <x:c r="H637" s="39">
-        <x:f>Subtotal(9,H636:H636)</x:f>
+        <x:f>Subtotal(9,H636)</x:f>
       </x:c>
       <x:c r="I637" s="40">
-        <x:f>Subtotal(9,I636:I636)</x:f>
+        <x:f>Subtotal(9,I636)</x:f>
       </x:c>
       <x:c r="J637" s="22">
-        <x:f>Subtotal(9,J636:J636)</x:f>
+        <x:f>Subtotal(9,J636)</x:f>
       </x:c>
     </x:row>
     <x:row r="638" spans="1:10">
@@ -16807,13 +16807,13 @@
       <x:c r="F654" s="39" t="s"/>
       <x:c r="G654" s="39" t="s"/>
       <x:c r="H654" s="39">
-        <x:f>Subtotal(9,H653:H653)</x:f>
+        <x:f>Subtotal(9,H653)</x:f>
       </x:c>
       <x:c r="I654" s="40">
-        <x:f>Subtotal(9,I653:I653)</x:f>
+        <x:f>Subtotal(9,I653)</x:f>
       </x:c>
       <x:c r="J654" s="22">
-        <x:f>Subtotal(9,J653:J653)</x:f>
+        <x:f>Subtotal(9,J653)</x:f>
       </x:c>
     </x:row>
     <x:row r="655" spans="1:10">
@@ -17868,13 +17868,13 @@
       <x:c r="F698" s="39" t="s"/>
       <x:c r="G698" s="39" t="s"/>
       <x:c r="H698" s="39">
-        <x:f>Subtotal(9,H697:H697)</x:f>
+        <x:f>Subtotal(9,H697)</x:f>
       </x:c>
       <x:c r="I698" s="40">
-        <x:f>Subtotal(9,I697:I697)</x:f>
+        <x:f>Subtotal(9,I697)</x:f>
       </x:c>
       <x:c r="J698" s="22">
-        <x:f>Subtotal(9,J697:J697)</x:f>
+        <x:f>Subtotal(9,J697)</x:f>
       </x:c>
     </x:row>
     <x:row r="699" spans="1:10">
@@ -18142,13 +18142,13 @@
       <x:c r="F710" s="39" t="s"/>
       <x:c r="G710" s="39" t="s"/>
       <x:c r="H710" s="39">
-        <x:f>Subtotal(9,H709:H709)</x:f>
+        <x:f>Subtotal(9,H709)</x:f>
       </x:c>
       <x:c r="I710" s="40">
-        <x:f>Subtotal(9,I709:I709)</x:f>
+        <x:f>Subtotal(9,I709)</x:f>
       </x:c>
       <x:c r="J710" s="22">
-        <x:f>Subtotal(9,J709:J709)</x:f>
+        <x:f>Subtotal(9,J709)</x:f>
       </x:c>
     </x:row>
     <x:row r="711" spans="1:10">
@@ -19097,13 +19097,13 @@
       <x:c r="F753" s="39" t="s"/>
       <x:c r="G753" s="39" t="s"/>
       <x:c r="H753" s="39">
-        <x:f>Subtotal(9,H752:H752)</x:f>
+        <x:f>Subtotal(9,H752)</x:f>
       </x:c>
       <x:c r="I753" s="40">
-        <x:f>Subtotal(9,I752:I752)</x:f>
+        <x:f>Subtotal(9,I752)</x:f>
       </x:c>
       <x:c r="J753" s="22">
-        <x:f>Subtotal(9,J752:J752)</x:f>
+        <x:f>Subtotal(9,J752)</x:f>
       </x:c>
     </x:row>
     <x:row r="754" spans="1:10">
@@ -19296,13 +19296,13 @@
       <x:c r="F762" s="39" t="s"/>
       <x:c r="G762" s="39" t="s"/>
       <x:c r="H762" s="39">
-        <x:f>Subtotal(9,H761:H761)</x:f>
+        <x:f>Subtotal(9,H761)</x:f>
       </x:c>
       <x:c r="I762" s="40">
-        <x:f>Subtotal(9,I761:I761)</x:f>
+        <x:f>Subtotal(9,I761)</x:f>
       </x:c>
       <x:c r="J762" s="22">
-        <x:f>Subtotal(9,J761:J761)</x:f>
+        <x:f>Subtotal(9,J761)</x:f>
       </x:c>
     </x:row>
     <x:row r="763" spans="1:10">
@@ -20812,13 +20812,13 @@
       <x:c r="F829" s="39" t="s"/>
       <x:c r="G829" s="39" t="s"/>
       <x:c r="H829" s="39">
-        <x:f>Subtotal(9,H828:H828)</x:f>
+        <x:f>Subtotal(9,H828)</x:f>
       </x:c>
       <x:c r="I829" s="40">
-        <x:f>Subtotal(9,I828:I828)</x:f>
+        <x:f>Subtotal(9,I828)</x:f>
       </x:c>
       <x:c r="J829" s="22">
-        <x:f>Subtotal(9,J828:J828)</x:f>
+        <x:f>Subtotal(9,J828)</x:f>
       </x:c>
     </x:row>
     <x:row r="830" spans="1:10">
@@ -20899,13 +20899,13 @@
       <x:c r="F833" s="39" t="s"/>
       <x:c r="G833" s="39" t="s"/>
       <x:c r="H833" s="39">
-        <x:f>Subtotal(9,H832:H832)</x:f>
+        <x:f>Subtotal(9,H832)</x:f>
       </x:c>
       <x:c r="I833" s="40">
-        <x:f>Subtotal(9,I832:I832)</x:f>
+        <x:f>Subtotal(9,I832)</x:f>
       </x:c>
       <x:c r="J833" s="22">
-        <x:f>Subtotal(9,J832:J832)</x:f>
+        <x:f>Subtotal(9,J832)</x:f>
       </x:c>
     </x:row>
     <x:row r="834" spans="1:10">
@@ -21576,13 +21576,13 @@
       <x:c r="F863" s="39" t="s"/>
       <x:c r="G863" s="39" t="s"/>
       <x:c r="H863" s="39">
-        <x:f>Subtotal(9,H862:H862)</x:f>
+        <x:f>Subtotal(9,H862)</x:f>
       </x:c>
       <x:c r="I863" s="40">
-        <x:f>Subtotal(9,I862:I862)</x:f>
+        <x:f>Subtotal(9,I862)</x:f>
       </x:c>
       <x:c r="J863" s="22">
-        <x:f>Subtotal(9,J862:J862)</x:f>
+        <x:f>Subtotal(9,J862)</x:f>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -23212,13 +23212,13 @@
       <x:c r="F935" s="39" t="s"/>
       <x:c r="G935" s="39" t="s"/>
       <x:c r="H935" s="39">
-        <x:f>Subtotal(9,H934:H934)</x:f>
+        <x:f>Subtotal(9,H934)</x:f>
       </x:c>
       <x:c r="I935" s="40">
-        <x:f>Subtotal(9,I934:I934)</x:f>
+        <x:f>Subtotal(9,I934)</x:f>
       </x:c>
       <x:c r="J935" s="22">
-        <x:f>Subtotal(9,J934:J934)</x:f>
+        <x:f>Subtotal(9,J934)</x:f>
       </x:c>
     </x:row>
     <x:row r="936" spans="1:10">
@@ -26219,13 +26219,13 @@
       <x:c r="F1068" s="39" t="s"/>
       <x:c r="G1068" s="39" t="s"/>
       <x:c r="H1068" s="39">
-        <x:f>Subtotal(9,H1067:H1067)</x:f>
+        <x:f>Subtotal(9,H1067)</x:f>
       </x:c>
       <x:c r="I1068" s="40">
-        <x:f>Subtotal(9,I1067:I1067)</x:f>
+        <x:f>Subtotal(9,I1067)</x:f>
       </x:c>
       <x:c r="J1068" s="22">
-        <x:f>Subtotal(9,J1067:J1067)</x:f>
+        <x:f>Subtotal(9,J1067)</x:f>
       </x:c>
     </x:row>
     <x:row r="1069" spans="1:10">
@@ -27720,13 +27720,13 @@
       <x:c r="F1132" s="39" t="s"/>
       <x:c r="G1132" s="39" t="s"/>
       <x:c r="H1132" s="39">
-        <x:f>Subtotal(9,H1131:H1131)</x:f>
+        <x:f>Subtotal(9,H1131)</x:f>
       </x:c>
       <x:c r="I1132" s="40">
-        <x:f>Subtotal(9,I1131:I1131)</x:f>
+        <x:f>Subtotal(9,I1131)</x:f>
       </x:c>
       <x:c r="J1132" s="22">
-        <x:f>Subtotal(9,J1131:J1131)</x:f>
+        <x:f>Subtotal(9,J1131)</x:f>
       </x:c>
     </x:row>
     <x:row r="1133" spans="1:10">
@@ -29286,13 +29286,13 @@
       <x:c r="F1203" s="39" t="s"/>
       <x:c r="G1203" s="39" t="s"/>
       <x:c r="H1203" s="39">
-        <x:f>Subtotal(9,H1202:H1202)</x:f>
+        <x:f>Subtotal(9,H1202)</x:f>
       </x:c>
       <x:c r="I1203" s="40">
-        <x:f>Subtotal(9,I1202:I1202)</x:f>
+        <x:f>Subtotal(9,I1202)</x:f>
       </x:c>
       <x:c r="J1203" s="22">
-        <x:f>Subtotal(9,J1202:J1202)</x:f>
+        <x:f>Subtotal(9,J1202)</x:f>
       </x:c>
     </x:row>
     <x:row r="1204" spans="1:10">
@@ -35127,13 +35127,13 @@
       <x:c r="F1454" s="39" t="s"/>
       <x:c r="G1454" s="39" t="s"/>
       <x:c r="H1454" s="39">
-        <x:f>Subtotal(9,H1453:H1453)</x:f>
+        <x:f>Subtotal(9,H1453)</x:f>
       </x:c>
       <x:c r="I1454" s="40">
-        <x:f>Subtotal(9,I1453:I1453)</x:f>
+        <x:f>Subtotal(9,I1453)</x:f>
       </x:c>
       <x:c r="J1454" s="22">
-        <x:f>Subtotal(9,J1453:J1453)</x:f>
+        <x:f>Subtotal(9,J1453)</x:f>
       </x:c>
     </x:row>
     <x:row r="1455" spans="1:10">
@@ -35596,13 +35596,13 @@
       <x:c r="F1476" s="39" t="s"/>
       <x:c r="G1476" s="39" t="s"/>
       <x:c r="H1476" s="39">
-        <x:f>Subtotal(9,H1475:H1475)</x:f>
+        <x:f>Subtotal(9,H1475)</x:f>
       </x:c>
       <x:c r="I1476" s="40">
-        <x:f>Subtotal(9,I1475:I1475)</x:f>
+        <x:f>Subtotal(9,I1475)</x:f>
       </x:c>
       <x:c r="J1476" s="22">
-        <x:f>Subtotal(9,J1475:J1475)</x:f>
+        <x:f>Subtotal(9,J1475)</x:f>
       </x:c>
     </x:row>
     <x:row r="1477" spans="1:10">
@@ -37502,13 +37502,13 @@
       <x:c r="F1563" s="39" t="s"/>
       <x:c r="G1563" s="39" t="s"/>
       <x:c r="H1563" s="39">
-        <x:f>Subtotal(9,H1562:H1562)</x:f>
+        <x:f>Subtotal(9,H1562)</x:f>
       </x:c>
       <x:c r="I1563" s="40">
-        <x:f>Subtotal(9,I1562:I1562)</x:f>
+        <x:f>Subtotal(9,I1562)</x:f>
       </x:c>
       <x:c r="J1563" s="22">
-        <x:f>Subtotal(9,J1562:J1562)</x:f>
+        <x:f>Subtotal(9,J1562)</x:f>
       </x:c>
     </x:row>
     <x:row r="1564" spans="1:10">
@@ -39155,13 +39155,13 @@
       <x:c r="F1638" s="39" t="s"/>
       <x:c r="G1638" s="39" t="s"/>
       <x:c r="H1638" s="39">
-        <x:f>Subtotal(9,H1637:H1637)</x:f>
+        <x:f>Subtotal(9,H1637)</x:f>
       </x:c>
       <x:c r="I1638" s="40">
-        <x:f>Subtotal(9,I1637:I1637)</x:f>
+        <x:f>Subtotal(9,I1637)</x:f>
       </x:c>
       <x:c r="J1638" s="22">
-        <x:f>Subtotal(9,J1637:J1637)</x:f>
+        <x:f>Subtotal(9,J1637)</x:f>
       </x:c>
     </x:row>
     <x:row r="1639" spans="1:10">
